--- a/614_QPSASPGEL202207 CN COPY.xlsx
+++ b/614_QPSASPGEL202207 CN COPY.xlsx
@@ -419,89 +419,94 @@
         <v>GrandTotal</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
         <v>SANT DASS SHARMA[OR0021]</v>
       </c>
       <c r="B2" t="str">
         <v>614/23/T1-1772</v>
       </c>
-      <c r="C2" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C2" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D2" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E2" t="str">
-        <v>6199</v>
+        <v>619900</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
         <v>KRISHNA AGENCIES[OR0044]</v>
       </c>
       <c r="B3" t="str">
         <v>614/23/T1-1773</v>
       </c>
-      <c r="C3" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C3" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D3" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E3" t="str">
-        <v>605</v>
+        <v>60500</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" xml:space="preserve">
       <c r="A4" t="str">
         <v>SHYAM MEDICAL AGENCIES[OR0055]</v>
       </c>
       <c r="B4" t="str">
         <v>614/23/T1-1774</v>
       </c>
-      <c r="C4" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C4" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D4" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E4" t="str">
-        <v>840</v>
+        <v>84000</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" xml:space="preserve">
       <c r="A5" t="str">
         <v>SANTOSH MEDICAL AGENCY[OR0099]</v>
       </c>
       <c r="B5" t="str">
         <v>614/23/T1-1775</v>
       </c>
-      <c r="C5" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C5" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D5" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E5" t="str">
-        <v>1151</v>
+        <v>115100</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" xml:space="preserve">
       <c r="A6" t="str">
         <v>ABLY ENTERPRISES[OR0117]</v>
       </c>
       <c r="B6" t="str">
         <v>614/23/T1-1776</v>
       </c>
-      <c r="C6" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C6" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D6" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E6" t="str">
-        <v>1015</v>
+        <v>101500</v>
       </c>
     </row>
   </sheetData>
